--- a/ref/WZ_mPCB_1803xx/WZY_SBOM -20180307.xlsx
+++ b/ref/WZ_mPCB_1803xx/WZY_SBOM -20180307.xlsx
@@ -1295,7 +1295,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
